--- a/static/download/2020/RP3_FLT_EFF_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_FLT_EFF_2020_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="155">
   <si>
     <t>Data source</t>
   </si>
@@ -98,6 +98,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>SES AREA (RP3)</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
@@ -464,9 +467,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>UK (Continental)</t>
-  </si>
-  <si>
     <t>Change date</t>
   </si>
   <si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK removed from SES area</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1163,31 +1169,28 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="28" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1312,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44209.0</v>
+        <v>44351.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1384,11 +1387,11 @@
         <v>42735.0</v>
       </c>
       <c r="D6" s="26">
-        <v>0.0491</v>
+        <v>0.0474</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="26">
-        <v>0.0296</v>
+        <v>0.0284</v>
       </c>
       <c r="G6" s="27"/>
     </row>
@@ -1403,11 +1406,11 @@
         <v>43100.0</v>
       </c>
       <c r="D7" s="26">
-        <v>0.0473</v>
+        <v>0.0457</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26">
-        <v>0.0281</v>
+        <v>0.0268</v>
       </c>
       <c r="G7" s="27"/>
     </row>
@@ -1422,11 +1425,11 @@
         <v>43465.0</v>
       </c>
       <c r="D8" s="26">
-        <v>0.0471</v>
+        <v>0.0456</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26">
-        <v>0.0283</v>
+        <v>0.0272</v>
       </c>
       <c r="G8" s="27"/>
     </row>
@@ -1441,11 +1444,11 @@
         <v>43830.0</v>
       </c>
       <c r="D9" s="26">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26">
-        <v>0.0295</v>
+        <v>0.0284</v>
       </c>
       <c r="G9" s="27"/>
     </row>
@@ -1460,13 +1463,13 @@
         <v>44196.0</v>
       </c>
       <c r="D10" s="26">
-        <v>0.0453</v>
+        <v>0.0438</v>
       </c>
       <c r="E10" s="29">
-        <v>0.0411</v>
+        <v>0.0398</v>
       </c>
       <c r="F10" s="26">
-        <v>0.0258</v>
+        <v>0.0251</v>
       </c>
       <c r="G10" s="27">
         <v>0.0253</v>
@@ -1587,7 +1590,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="7">
-        <v>44209.0</v>
+        <v>44351.0</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -1615,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43"/>
@@ -1623,7 +1626,7 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>13</v>
@@ -1635,19 +1638,19 @@
         <v>15</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="49">
-        <v>0.0471</v>
+        <v>0.0456</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="49">
-        <v>0.0284</v>
+        <v>0.0273</v>
       </c>
       <c r="E6" s="51">
         <v>0.0</v>
@@ -1655,14 +1658,14 @@
     </row>
     <row r="7">
       <c r="A7" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="53">
-        <v>0.0471</v>
+        <v>0.0456</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53">
-        <v>0.0285</v>
+        <v>0.0274</v>
       </c>
       <c r="E7" s="51">
         <v>0.0</v>
@@ -1670,14 +1673,14 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="53">
-        <v>0.047</v>
+        <v>0.0455</v>
       </c>
       <c r="C8" s="53"/>
       <c r="D8" s="53">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="E8" s="51">
         <v>0.0</v>
@@ -1685,14 +1688,14 @@
     </row>
     <row r="9">
       <c r="A9" s="52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="53">
-        <v>0.0469</v>
+        <v>0.0454</v>
       </c>
       <c r="C9" s="53"/>
       <c r="D9" s="53">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="E9" s="51">
         <v>0.0</v>
@@ -1700,14 +1703,14 @@
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="53">
-        <v>0.0469</v>
+        <v>0.0454</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="53">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="E10" s="51">
         <v>0.0</v>
@@ -1715,14 +1718,14 @@
     </row>
     <row r="11">
       <c r="A11" s="52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="54">
-        <v>0.0287</v>
+        <v>0.0276</v>
       </c>
       <c r="E11" s="51">
         <v>0.0</v>
@@ -1730,14 +1733,14 @@
     </row>
     <row r="12">
       <c r="A12" s="52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="54">
-        <v>0.0289</v>
+        <v>0.0278</v>
       </c>
       <c r="E12" s="51">
         <v>0.0</v>
@@ -1745,14 +1748,14 @@
     </row>
     <row r="13">
       <c r="A13" s="52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="54">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="E13" s="51">
         <v>1.0</v>
@@ -1760,14 +1763,14 @@
     </row>
     <row r="14">
       <c r="A14" s="52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="54">
-        <v>0.0292</v>
+        <v>0.0281</v>
       </c>
       <c r="E14" s="51">
         <v>1.0</v>
@@ -1775,14 +1778,14 @@
     </row>
     <row r="15">
       <c r="A15" s="52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="53">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="54">
-        <v>0.0293</v>
+        <v>0.0283</v>
       </c>
       <c r="E15" s="51">
         <v>1.0</v>
@@ -1790,14 +1793,14 @@
     </row>
     <row r="16">
       <c r="A16" s="52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="55">
-        <v>0.0467</v>
+        <v>0.0452</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="54">
-        <v>0.0293</v>
+        <v>0.0283</v>
       </c>
       <c r="E16" s="51">
         <v>1.0</v>
@@ -1805,14 +1808,14 @@
     </row>
     <row r="17">
       <c r="A17" s="56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="57">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="58">
-        <v>0.0295</v>
+        <v>0.0284</v>
       </c>
       <c r="E17" s="51">
         <v>1.0</v>
@@ -1820,16 +1823,16 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="49">
-        <v>0.0468</v>
+        <v>0.0453</v>
       </c>
       <c r="C18" s="49">
-        <v>0.0432</v>
+        <v>0.0418</v>
       </c>
       <c r="D18" s="49">
-        <v>0.0295</v>
+        <v>0.0285</v>
       </c>
       <c r="E18" s="51">
         <v>1.0</v>
@@ -1837,16 +1840,16 @@
     </row>
     <row r="19">
       <c r="A19" s="52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="53">
-        <v>0.0468</v>
+        <v>0.0452</v>
       </c>
       <c r="C19" s="53">
-        <v>0.0432</v>
+        <v>0.0417</v>
       </c>
       <c r="D19" s="53">
-        <v>0.0295</v>
+        <v>0.0285</v>
       </c>
       <c r="E19" s="51">
         <v>1.0</v>
@@ -1854,16 +1857,16 @@
     </row>
     <row r="20">
       <c r="A20" s="52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="53">
-        <v>0.0467</v>
+        <v>0.0451</v>
       </c>
       <c r="C20" s="53">
-        <v>0.0431</v>
+        <v>0.0416</v>
       </c>
       <c r="D20" s="53">
-        <v>0.0294</v>
+        <v>0.0283</v>
       </c>
       <c r="E20" s="51">
         <v>1.0</v>
@@ -1871,16 +1874,16 @@
     </row>
     <row r="21">
       <c r="A21" s="52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="53">
-        <v>0.0466</v>
+        <v>0.0451</v>
       </c>
       <c r="C21" s="53">
-        <v>0.043</v>
+        <v>0.0415</v>
       </c>
       <c r="D21" s="53">
-        <v>0.0294</v>
+        <v>0.0283</v>
       </c>
       <c r="E21" s="51">
         <v>1.0</v>
@@ -1888,16 +1891,16 @@
     </row>
     <row r="22">
       <c r="A22" s="52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="53">
-        <v>0.0464</v>
+        <v>0.0449</v>
       </c>
       <c r="C22" s="59">
-        <v>0.0427</v>
+        <v>0.0413</v>
       </c>
       <c r="D22" s="53">
-        <v>0.0292</v>
+        <v>0.0281</v>
       </c>
       <c r="E22" s="51">
         <v>1.0</v>
@@ -1905,16 +1908,16 @@
     </row>
     <row r="23">
       <c r="A23" s="52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="53">
-        <v>0.0462</v>
+        <v>0.0448</v>
       </c>
       <c r="C23" s="59">
-        <v>0.0425</v>
+        <v>0.0411</v>
       </c>
       <c r="D23" s="54">
-        <v>0.0287</v>
+        <v>0.0277</v>
       </c>
       <c r="E23" s="51">
         <v>1.0</v>
@@ -1922,16 +1925,16 @@
     </row>
     <row r="24">
       <c r="A24" s="52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="54">
-        <v>0.0461</v>
+        <v>0.0446</v>
       </c>
       <c r="C24" s="60">
-        <v>0.0423</v>
+        <v>0.0409</v>
       </c>
       <c r="D24" s="54">
-        <v>0.0282</v>
+        <v>0.0272</v>
       </c>
       <c r="E24" s="51">
         <v>1.0</v>
@@ -1939,16 +1942,16 @@
     </row>
     <row r="25">
       <c r="A25" s="52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="54">
-        <v>0.0459</v>
+        <v>0.0444</v>
       </c>
       <c r="C25" s="60">
-        <v>0.0422</v>
+        <v>0.0407</v>
       </c>
       <c r="D25" s="54">
-        <v>0.0278</v>
+        <v>0.0268</v>
       </c>
       <c r="E25" s="51">
         <v>1.0</v>
@@ -1956,16 +1959,16 @@
     </row>
     <row r="26">
       <c r="A26" s="52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="53">
-        <v>0.0457</v>
+        <v>0.0442</v>
       </c>
       <c r="C26" s="59">
-        <v>0.0419</v>
+        <v>0.0404</v>
       </c>
       <c r="D26" s="54">
-        <v>0.0272</v>
+        <v>0.0263</v>
       </c>
       <c r="E26" s="51">
         <v>1.0</v>
@@ -1973,16 +1976,16 @@
     </row>
     <row r="27">
       <c r="A27" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="53">
-        <v>0.0455</v>
+        <v>0.044</v>
       </c>
       <c r="C27" s="59">
-        <v>0.0415</v>
+        <v>0.0401</v>
       </c>
       <c r="D27" s="54">
-        <v>0.0267</v>
+        <v>0.0258</v>
       </c>
       <c r="E27" s="51">
         <v>1.0</v>
@@ -1990,16 +1993,16 @@
     </row>
     <row r="28">
       <c r="A28" s="52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="55">
-        <v>0.0454</v>
+        <v>0.044</v>
       </c>
       <c r="C28" s="61">
-        <v>0.0413</v>
+        <v>0.04</v>
       </c>
       <c r="D28" s="54">
-        <v>0.0263</v>
+        <v>0.0255</v>
       </c>
       <c r="E28" s="51">
         <v>1.0</v>
@@ -2007,16 +2010,16 @@
     </row>
     <row r="29">
       <c r="A29" s="56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="57">
-        <v>0.0453</v>
+        <v>0.0438</v>
       </c>
       <c r="C29" s="62">
-        <v>0.0411</v>
+        <v>0.0398</v>
       </c>
       <c r="D29" s="58">
-        <v>0.0258</v>
+        <v>0.0251</v>
       </c>
       <c r="E29" s="51">
         <v>1.0</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="63"/>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="31">
       <c r="A31" s="52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="59"/>
@@ -2042,7 +2045,7 @@
     </row>
     <row r="32">
       <c r="A32" s="52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="59"/>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="33">
       <c r="A33" s="52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="59"/>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="34">
       <c r="A34" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="59"/>
@@ -2069,7 +2072,7 @@
     </row>
     <row r="35">
       <c r="A35" s="52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="59"/>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="36">
       <c r="A36" s="52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="59"/>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="37">
       <c r="A37" s="52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="53"/>
       <c r="C37" s="59"/>
@@ -2096,7 +2099,7 @@
     </row>
     <row r="38">
       <c r="A38" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="59"/>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="39">
       <c r="A39" s="52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="53"/>
       <c r="C39" s="59"/>
@@ -2114,7 +2117,7 @@
     </row>
     <row r="40">
       <c r="A40" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="65"/>
@@ -2123,7 +2126,7 @@
     </row>
     <row r="41">
       <c r="A41" s="56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="42">
       <c r="A42" s="48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" s="49"/>
       <c r="C42" s="63"/>
@@ -2141,7 +2144,7 @@
     </row>
     <row r="43">
       <c r="A43" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="59"/>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="44">
       <c r="A44" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="45">
       <c r="A45" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="53"/>
       <c r="C45" s="59"/>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="46">
       <c r="A46" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="53"/>
       <c r="C46" s="59"/>
@@ -2177,7 +2180,7 @@
     </row>
     <row r="47">
       <c r="A47" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B47" s="53"/>
       <c r="C47" s="59"/>
@@ -2186,7 +2189,7 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B48" s="53"/>
       <c r="C48" s="59"/>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="49">
       <c r="A49" s="52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="59"/>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="50">
       <c r="A50" s="52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B50" s="53"/>
       <c r="C50" s="59"/>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="51">
       <c r="A51" s="52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B51" s="53"/>
       <c r="C51" s="59"/>
@@ -2222,7 +2225,7 @@
     </row>
     <row r="52">
       <c r="A52" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" s="64"/>
       <c r="C52" s="65"/>
@@ -2231,7 +2234,7 @@
     </row>
     <row r="53">
       <c r="A53" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="66"/>
       <c r="C53" s="67"/>
@@ -2240,7 +2243,7 @@
     </row>
     <row r="54">
       <c r="A54" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" s="49"/>
       <c r="C54" s="63"/>
@@ -2249,7 +2252,7 @@
     </row>
     <row r="55">
       <c r="A55" s="52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="53"/>
       <c r="C55" s="59"/>
@@ -2258,7 +2261,7 @@
     </row>
     <row r="56">
       <c r="A56" s="52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="53"/>
       <c r="C56" s="59"/>
@@ -2267,7 +2270,7 @@
     </row>
     <row r="57">
       <c r="A57" s="52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="59"/>
@@ -2276,7 +2279,7 @@
     </row>
     <row r="58">
       <c r="A58" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="53"/>
       <c r="C58" s="59"/>
@@ -2285,7 +2288,7 @@
     </row>
     <row r="59">
       <c r="A59" s="52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="53"/>
       <c r="C59" s="59"/>
@@ -2294,7 +2297,7 @@
     </row>
     <row r="60">
       <c r="A60" s="52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="53"/>
       <c r="C60" s="59"/>
@@ -2303,7 +2306,7 @@
     </row>
     <row r="61">
       <c r="A61" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="53"/>
       <c r="C61" s="59"/>
@@ -2312,7 +2315,7 @@
     </row>
     <row r="62">
       <c r="A62" s="52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" s="53"/>
       <c r="C62" s="59"/>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="63">
       <c r="A63" s="52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" s="53"/>
       <c r="C63" s="59"/>
@@ -2330,7 +2333,7 @@
     </row>
     <row r="64">
       <c r="A64" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="64"/>
       <c r="C64" s="65"/>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="65">
       <c r="A65" s="56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="66"/>
       <c r="C65" s="67"/>
@@ -2348,7 +2351,7 @@
     </row>
     <row r="66">
       <c r="A66" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" s="49"/>
       <c r="C66" s="63"/>
@@ -2357,7 +2360,7 @@
     </row>
     <row r="67">
       <c r="A67" s="52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="53"/>
       <c r="C67" s="59"/>
@@ -2366,7 +2369,7 @@
     </row>
     <row r="68">
       <c r="A68" s="52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B68" s="53"/>
       <c r="C68" s="59"/>
@@ -2375,7 +2378,7 @@
     </row>
     <row r="69">
       <c r="A69" s="52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="53"/>
       <c r="C69" s="59"/>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="70">
       <c r="A70" s="52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="53"/>
       <c r="C70" s="59"/>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="71">
       <c r="A71" s="52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="53"/>
       <c r="C71" s="59"/>
@@ -2402,7 +2405,7 @@
     </row>
     <row r="72">
       <c r="A72" s="52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="53"/>
       <c r="C72" s="59"/>
@@ -2411,7 +2414,7 @@
     </row>
     <row r="73">
       <c r="A73" s="52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="53"/>
       <c r="C73" s="59"/>
@@ -2420,7 +2423,7 @@
     </row>
     <row r="74">
       <c r="A74" s="52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" s="53"/>
       <c r="C74" s="59"/>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="75">
       <c r="A75" s="52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B75" s="53"/>
       <c r="C75" s="59"/>
@@ -2438,7 +2441,7 @@
     </row>
     <row r="76">
       <c r="A76" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" s="64"/>
       <c r="C76" s="65"/>
@@ -2447,7 +2450,7 @@
     </row>
     <row r="77">
       <c r="A77" s="56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="66"/>
       <c r="C77" s="67"/>
@@ -2482,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>8</v>
@@ -2528,12 +2531,12 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="77" t="s">
@@ -2542,27 +2545,27 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="81">
         <v>0.0453</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="82">
         <v>0.0295</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="82">
         <v>0.0436</v>
@@ -2612,7 +2615,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="82">
         <v>0.0343</v>
@@ -2628,7 +2631,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="82">
         <v>0.0215</v>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="82">
         <v>0.0272</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="82">
         <v>0.0597</v>
@@ -2676,7 +2679,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="81">
         <v>0.0178</v>
@@ -2692,7 +2695,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="81">
         <v>0.041</v>
@@ -2708,7 +2711,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="82">
         <v>0.0602</v>
@@ -2760,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>8</v>
@@ -2806,12 +2809,12 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="77" t="s">
@@ -2820,27 +2823,27 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="86">
         <v>0.0284</v>
@@ -2856,7 +2859,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="87">
         <v>0.0707</v>
@@ -2872,7 +2875,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="87">
         <v>0.0352</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="87">
         <v>0.0185</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="87">
         <v>0.0642</v>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="87">
         <v>0.0347</v>
@@ -2936,7 +2939,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="87">
         <v>0.0273</v>
@@ -2952,7 +2955,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" s="86">
         <v>0.0134</v>
@@ -2968,7 +2971,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="86">
         <v>0.0114</v>
@@ -2984,7 +2987,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="89" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B15" s="87">
         <v>0.0618</v>
@@ -3000,7 +3003,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="89" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="87">
         <v>0.0554</v>
@@ -3016,7 +3019,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="87">
         <v>0.0378</v>
@@ -3032,7 +3035,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="89" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" s="87">
         <v>0.0246</v>
@@ -3048,7 +3051,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" s="87">
         <v>0.0232</v>
@@ -3064,7 +3067,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B20" s="87">
         <v>0.0442</v>
@@ -3080,7 +3083,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" s="87">
         <v>0.0142</v>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B22" s="87">
         <v>0.0217</v>
@@ -3112,7 +3115,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B23" s="87">
         <v>0.0292</v>
@@ -3128,7 +3131,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" s="87">
         <v>0.0495</v>
@@ -3144,7 +3147,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" s="87">
         <v>0.0227</v>
@@ -3160,7 +3163,7 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="87">
         <v>0.0307</v>
@@ -3176,7 +3179,7 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="89" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B27" s="87">
         <v>0.0211</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="89" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" s="87">
         <v>0.0336</v>
@@ -3208,7 +3211,7 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" s="87">
         <v>0.0355</v>
@@ -3224,7 +3227,7 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="89" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" s="87">
         <v>0.0185</v>
@@ -3240,7 +3243,7 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="89" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" s="87">
         <v>0.0465</v>
@@ -3256,7 +3259,7 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="89" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B32" s="87">
         <v>0.0191</v>
@@ -3272,7 +3275,7 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" s="87">
         <v>0.0758</v>
@@ -3286,29 +3289,13 @@
       </c>
       <c r="F33" s="88"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="87">
-        <v>0.0646</v>
-      </c>
-      <c r="C34" s="87">
-        <v>0.0583</v>
-      </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87">
-        <v>0.0335</v>
-      </c>
-      <c r="F34" s="88"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:F34">
+  <conditionalFormatting sqref="F6:F33">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F34">
+  <conditionalFormatting sqref="F6:F33">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3348,148 +3335,154 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="92">
+        <v>44351.0</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>153</v>
+      </c>
       <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
+      <c r="D2" s="93" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="93"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="95"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="95"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="95"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="95"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="99"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="95"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="99"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="101"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="95"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="99"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="95"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="95"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="99"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="95"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="99"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="95"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="99"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="95"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="99"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="95"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="99"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="95"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="99"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="95"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="99"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="95"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="99"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="95"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="99"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="95"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="99"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="95"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="99"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="95"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="99"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="95"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="99"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="99"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="98"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="93"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
